--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_17_6.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_17_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1743470.756458781</v>
+        <v>-1746331.570251073</v>
       </c>
     </row>
     <row r="7">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83417464571001</v>
+        <v>79.51149230610436</v>
       </c>
       <c r="H2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>219.4450108596165</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -738,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>86.75210827336637</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -750,13 +750,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -789,16 +789,16 @@
         <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>82.611796172141</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
         <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>110.6934725236131</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>263.7138800015061</v>
+        <v>104.1806028320081</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,23 +896,23 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>263.7138800015061</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
+        <v>12.83417464571001</v>
+      </c>
+      <c r="H5" t="n">
         <v>263.7138800015061</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>13.11342416039188</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>212.2897156032232</v>
@@ -953,13 +953,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>263.7138800015061</v>
+        <v>0.2792495146818396</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -981,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>109.3876327251611</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>96.22760241779281</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1057,16 +1057,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>49.43353001081886</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>190.3570193945485</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>402.1421096143551</v>
       </c>
       <c r="G8" t="n">
-        <v>11.74167907658358</v>
+        <v>11.74167907658357</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1184,16 +1184,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>207.5073162493723</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0607682327524</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>330.3306811509451</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1227,10 +1227,10 @@
         <v>135.438182924131</v>
       </c>
       <c r="H9" t="n">
-        <v>93.8339267169637</v>
+        <v>93.83392671696366</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>23.79630926906609</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,13 +1260,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>116.0702468990087</v>
+        <v>125.6050741394725</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>192.4848946346715</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8160311441933</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>45.3889396984024</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1303,10 +1303,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3936111367397</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.025116863428</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>105.4699075169637</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>221.1204706627545</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>26.34408271423105</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>133.3722917337067</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>73.9322284908373</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>38.05096575280767</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>34.6921136716486</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2020,7 +2020,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>14.19454216862693</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>137.761022548695</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>9.146142788179397</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2324,7 +2324,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2375,7 +2375,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2488,10 +2488,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>126.6321535627874</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>167.363726718209</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695541</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881288</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.246821098628</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465693</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229314</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.524138292269</v>
+        <v>59.44001103519365</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.3752467101218</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016447</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>8.616048582068029</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2801,13 +2801,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,22 +2840,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695535</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>28.42659968729191</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,10 +3004,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>25.7319404949734</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3077,16 +3077,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3187,25 +3187,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652583</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808197</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3320,7 +3320,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,7 +3439,7 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
         <v>56.98118882652581</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652583</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808197</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -3989,7 +3989,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808194</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>566.8162363079208</v>
+        <v>367.7894056603332</v>
       </c>
       <c r="C2" t="n">
-        <v>566.8162363079208</v>
+        <v>367.7894056603332</v>
       </c>
       <c r="D2" t="n">
-        <v>566.8162363079208</v>
+        <v>101.4117490931552</v>
       </c>
       <c r="E2" t="n">
-        <v>566.8162363079208</v>
+        <v>101.4117490931552</v>
       </c>
       <c r="F2" t="n">
-        <v>300.4385797407429</v>
+        <v>101.4117490931552</v>
       </c>
       <c r="G2" t="n">
-        <v>287.4747669672984</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917573</v>
+        <v>49.28269087917624</v>
       </c>
       <c r="K2" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052547</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515904</v>
+        <v>294.5174947515909</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030602</v>
+        <v>495.5981834030608</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991317</v>
+        <v>704.5463761991321</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358418</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4355,25 +4355,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="U2" t="n">
-        <v>833.1938928750988</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="V2" t="n">
-        <v>833.1938928750988</v>
+        <v>634.1670622275112</v>
       </c>
       <c r="W2" t="n">
-        <v>833.1938928750988</v>
+        <v>634.1670622275112</v>
       </c>
       <c r="X2" t="n">
-        <v>566.8162363079208</v>
+        <v>634.1670622275112</v>
       </c>
       <c r="Y2" t="n">
-        <v>566.8162363079208</v>
+        <v>634.1670622275112</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4383,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>340.3997601587378</v>
+        <v>246.1221890463729</v>
       </c>
       <c r="C3" t="n">
-        <v>165.9467308776107</v>
+        <v>158.4937968510533</v>
       </c>
       <c r="D3" t="n">
-        <v>165.9467308776107</v>
+        <v>158.4937968510533</v>
       </c>
       <c r="E3" t="n">
-        <v>165.9467308776107</v>
+        <v>158.4937968510533</v>
       </c>
       <c r="F3" t="n">
-        <v>165.9467308776107</v>
+        <v>158.4937968510533</v>
       </c>
       <c r="G3" t="n">
-        <v>165.9467308776107</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957465</v>
+        <v>192.1295835699345</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298713</v>
+        <v>338.8740072302312</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263951</v>
+        <v>529.474696326755</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110290001</v>
+        <v>739.52866342936</v>
       </c>
       <c r="O3" t="n">
-        <v>904.2569522304912</v>
+        <v>909.4672107560898</v>
       </c>
       <c r="P3" t="n">
         <v>1026.524810789493</v>
@@ -4434,25 +4434,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>906.2192216098642</v>
+        <v>906.2192216098645</v>
       </c>
       <c r="T3" t="n">
-        <v>822.7729628501259</v>
+        <v>709.4101432413021</v>
       </c>
       <c r="U3" t="n">
-        <v>594.6371168869393</v>
+        <v>481.2742972781156</v>
       </c>
       <c r="V3" t="n">
-        <v>594.6371168869393</v>
+        <v>246.1221890463729</v>
       </c>
       <c r="W3" t="n">
-        <v>340.3997601587378</v>
+        <v>246.1221890463729</v>
       </c>
       <c r="X3" t="n">
-        <v>340.3997601587378</v>
+        <v>246.1221890463729</v>
       </c>
       <c r="Y3" t="n">
-        <v>340.3997601587378</v>
+        <v>246.1221890463729</v>
       </c>
     </row>
     <row r="4">
@@ -4462,46 +4462,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21.09711040012049</v>
+        <v>338.15602058326</v>
       </c>
       <c r="C4" t="n">
-        <v>21.09711040012049</v>
+        <v>338.15602058326</v>
       </c>
       <c r="D4" t="n">
-        <v>21.09711040012049</v>
+        <v>338.15602058326</v>
       </c>
       <c r="E4" t="n">
-        <v>21.09711040012049</v>
+        <v>190.2429270008669</v>
       </c>
       <c r="F4" t="n">
-        <v>21.09711040012049</v>
+        <v>190.2429270008669</v>
       </c>
       <c r="G4" t="n">
-        <v>21.09711040012049</v>
+        <v>190.2429270008669</v>
       </c>
       <c r="H4" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="I4" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287948</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551008</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375335</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227045</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075542</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="S4" t="n">
-        <v>848.0684854165359</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="T4" t="n">
-        <v>848.0684854165359</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="U4" t="n">
-        <v>581.6908288493579</v>
+        <v>820.8300596871642</v>
       </c>
       <c r="V4" t="n">
-        <v>581.6908288493579</v>
+        <v>566.1455714812773</v>
       </c>
       <c r="W4" t="n">
-        <v>581.6908288493579</v>
+        <v>566.1455714812773</v>
       </c>
       <c r="X4" t="n">
-        <v>353.7012779513406</v>
+        <v>338.15602058326</v>
       </c>
       <c r="Y4" t="n">
-        <v>132.9086988078105</v>
+        <v>338.15602058326</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>560.7979242836798</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="C5" t="n">
-        <v>294.4202677165019</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="D5" t="n">
-        <v>294.4202677165019</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="E5" t="n">
-        <v>294.4202677165019</v>
+        <v>307.3840804899463</v>
       </c>
       <c r="F5" t="n">
+        <v>300.4385797407429</v>
+      </c>
+      <c r="G5" t="n">
         <v>287.4747669672984</v>
-      </c>
-      <c r="G5" t="n">
-        <v>21.09711040012049</v>
       </c>
       <c r="H5" t="n">
         <v>21.09711040012049</v>
@@ -4571,7 +4571,7 @@
         <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515905</v>
+        <v>294.5174947515903</v>
       </c>
       <c r="M5" t="n">
         <v>495.5981834030603</v>
@@ -4592,25 +4592,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>1041.60963701573</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>827.1755808508577</v>
+        <v>840.4214638411526</v>
       </c>
       <c r="U5" t="n">
-        <v>827.1755808508577</v>
+        <v>840.4214638411526</v>
       </c>
       <c r="V5" t="n">
-        <v>827.1755808508577</v>
+        <v>574.0438072739746</v>
       </c>
       <c r="W5" t="n">
-        <v>827.1755808508577</v>
+        <v>574.0438072739746</v>
       </c>
       <c r="X5" t="n">
-        <v>560.7979242836798</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="Y5" t="n">
-        <v>560.7979242836798</v>
+        <v>573.7617370571243</v>
       </c>
     </row>
     <row r="6">
@@ -4620,13 +4620,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>354.787594686703</v>
+        <v>195.5501396812475</v>
       </c>
       <c r="C6" t="n">
-        <v>180.334565405576</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D6" t="n">
-        <v>180.334565405576</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E6" t="n">
         <v>21.09711040012049</v>
@@ -4644,10 +4644,10 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>117.4455628004801</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>192.1295835699343</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L6" t="n">
         <v>338.874007230231</v>
@@ -4668,28 +4668,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S6" t="n">
-        <v>887.8833378166544</v>
+        <v>906.2192216098642</v>
       </c>
       <c r="T6" t="n">
-        <v>887.8833378166544</v>
+        <v>709.4101432413019</v>
       </c>
       <c r="U6" t="n">
-        <v>659.7474918534679</v>
+        <v>598.9175849330583</v>
       </c>
       <c r="V6" t="n">
-        <v>659.7474918534679</v>
+        <v>363.7654767013155</v>
       </c>
       <c r="W6" t="n">
-        <v>659.7474918534679</v>
+        <v>363.7654767013155</v>
       </c>
       <c r="X6" t="n">
-        <v>562.5478934516569</v>
+        <v>363.7654767013155</v>
       </c>
       <c r="Y6" t="n">
-        <v>354.787594686703</v>
+        <v>363.7654767013155</v>
       </c>
     </row>
     <row r="7">
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>217.9199164948176</v>
+        <v>634.5861515377562</v>
       </c>
       <c r="C7" t="n">
-        <v>217.9199164948176</v>
+        <v>634.5861515377562</v>
       </c>
       <c r="D7" t="n">
-        <v>167.9870578980309</v>
+        <v>484.4695121254205</v>
       </c>
       <c r="E7" t="n">
-        <v>167.9870578980309</v>
+        <v>336.5564185430274</v>
       </c>
       <c r="F7" t="n">
-        <v>21.09711040012049</v>
+        <v>189.666471045117</v>
       </c>
       <c r="G7" t="n">
         <v>21.09711040012049</v>
@@ -4726,10 +4726,10 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M7" t="n">
         <v>527.7368878375335</v>
@@ -4747,28 +4747,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T7" t="n">
-        <v>700.5939555987218</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U7" t="n">
-        <v>700.5939555987218</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V7" t="n">
-        <v>445.9094673928349</v>
+        <v>862.5757024357736</v>
       </c>
       <c r="W7" t="n">
-        <v>445.9094673928349</v>
+        <v>862.5757024357736</v>
       </c>
       <c r="X7" t="n">
-        <v>217.9199164948176</v>
+        <v>634.5861515377562</v>
       </c>
       <c r="Y7" t="n">
-        <v>217.9199164948176</v>
+        <v>634.5861515377562</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>434.2847019769709</v>
+        <v>822.8465340197176</v>
       </c>
       <c r="C8" t="n">
-        <v>65.32218503655918</v>
+        <v>822.8465340197176</v>
       </c>
       <c r="D8" t="n">
-        <v>65.32218503655918</v>
+        <v>464.5808354129671</v>
       </c>
       <c r="E8" t="n">
-        <v>65.32218503655918</v>
+        <v>464.5808354129671</v>
       </c>
       <c r="F8" t="n">
-        <v>58.37668428735571</v>
+        <v>58.37668428735586</v>
       </c>
       <c r="G8" t="n">
-        <v>46.51640239181674</v>
+        <v>46.5164023918169</v>
       </c>
       <c r="H8" t="n">
-        <v>46.51640239181674</v>
+        <v>46.5164023918169</v>
       </c>
       <c r="I8" t="n">
-        <v>46.51640239181674</v>
+        <v>46.5164023918169</v>
       </c>
       <c r="J8" t="n">
-        <v>166.498936722915</v>
+        <v>166.4989367229161</v>
       </c>
       <c r="K8" t="n">
-        <v>397.0601716677473</v>
+        <v>397.0601716677492</v>
       </c>
       <c r="L8" t="n">
-        <v>719.9935330937544</v>
+        <v>719.9935330937574</v>
       </c>
       <c r="M8" t="n">
-        <v>1110.988557721573</v>
+        <v>1110.988557721577</v>
       </c>
       <c r="N8" t="n">
-        <v>1512.924098999415</v>
+        <v>1512.92409899942</v>
       </c>
       <c r="O8" t="n">
-        <v>1879.12517183055</v>
+        <v>1879.125171830556</v>
       </c>
       <c r="P8" t="n">
-        <v>2157.168314271716</v>
+        <v>2157.168314271723</v>
       </c>
       <c r="Q8" t="n">
-        <v>2317.794388257575</v>
+        <v>2317.794388257583</v>
       </c>
       <c r="R8" t="n">
-        <v>2325.820119590837</v>
+        <v>2325.820119590845</v>
       </c>
       <c r="S8" t="n">
-        <v>2325.820119590837</v>
+        <v>2325.820119590845</v>
       </c>
       <c r="T8" t="n">
-        <v>2116.216769843996</v>
+        <v>2325.820119590845</v>
       </c>
       <c r="U8" t="n">
-        <v>1862.620034255357</v>
+        <v>2325.820119590845</v>
       </c>
       <c r="V8" t="n">
-        <v>1531.557146911787</v>
+        <v>2325.820119590845</v>
       </c>
       <c r="W8" t="n">
-        <v>1197.889792213862</v>
+        <v>1973.051464320731</v>
       </c>
       <c r="X8" t="n">
-        <v>824.4240339527826</v>
+        <v>1599.585706059651</v>
       </c>
       <c r="Y8" t="n">
-        <v>434.2847019769709</v>
+        <v>1209.446374083839</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>907.2638438492248</v>
+        <v>931.3005198785846</v>
       </c>
       <c r="C9" t="n">
-        <v>732.8108145680978</v>
+        <v>756.8474905974576</v>
       </c>
       <c r="D9" t="n">
-        <v>583.8764049068466</v>
+        <v>607.9130809362064</v>
       </c>
       <c r="E9" t="n">
-        <v>424.638949901391</v>
+        <v>448.6756259307509</v>
       </c>
       <c r="F9" t="n">
-        <v>278.104391928276</v>
+        <v>302.1410679576359</v>
       </c>
       <c r="G9" t="n">
-        <v>141.2981465503659</v>
+        <v>165.3348225797258</v>
       </c>
       <c r="H9" t="n">
-        <v>46.51640239181674</v>
+        <v>70.55307842117659</v>
       </c>
       <c r="I9" t="n">
-        <v>46.51640239181674</v>
+        <v>46.5164023918169</v>
       </c>
       <c r="J9" t="n">
-        <v>99.15933091977891</v>
+        <v>99.15933091977939</v>
       </c>
       <c r="K9" t="n">
-        <v>267.2893053412813</v>
+        <v>267.2893053412824</v>
       </c>
       <c r="L9" t="n">
-        <v>842.9297849400134</v>
+        <v>539.6833456336967</v>
       </c>
       <c r="M9" t="n">
-        <v>1180.157650136676</v>
+        <v>1094.834687517151</v>
       </c>
       <c r="N9" t="n">
-        <v>1540.719578388012</v>
+        <v>1670.475167115885</v>
       </c>
       <c r="O9" t="n">
-        <v>1848.343506048899</v>
+        <v>1978.099094776773</v>
       </c>
       <c r="P9" t="n">
-        <v>2075.905762358014</v>
+        <v>2205.661351085888</v>
       </c>
       <c r="Q9" t="n">
-        <v>2325.820119590837</v>
+        <v>2307.861496570699</v>
       </c>
       <c r="R9" t="n">
-        <v>2325.820119590837</v>
+        <v>2325.820119590845</v>
       </c>
       <c r="S9" t="n">
-        <v>2208.577445955475</v>
+        <v>2198.946307328752</v>
       </c>
       <c r="T9" t="n">
-        <v>2208.577445955475</v>
+        <v>2004.517120829084</v>
       </c>
       <c r="U9" t="n">
-        <v>1980.480444799724</v>
+        <v>2004.517120829084</v>
       </c>
       <c r="V9" t="n">
-        <v>1745.328336567981</v>
+        <v>1769.365012597341</v>
       </c>
       <c r="W9" t="n">
-        <v>1491.090979839779</v>
+        <v>1515.127655869139</v>
       </c>
       <c r="X9" t="n">
-        <v>1283.239479634247</v>
+        <v>1307.276155663606</v>
       </c>
       <c r="Y9" t="n">
-        <v>1075.479180869293</v>
+        <v>1099.515856898653</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>660.3722658123628</v>
+        <v>827.8503011476714</v>
       </c>
       <c r="C10" t="n">
-        <v>491.4360828844559</v>
+        <v>658.9141182197645</v>
       </c>
       <c r="D10" t="n">
-        <v>341.3194434721202</v>
+        <v>658.9141182197645</v>
       </c>
       <c r="E10" t="n">
-        <v>193.4063498897271</v>
+        <v>511.0010246373714</v>
       </c>
       <c r="F10" t="n">
-        <v>46.51640239181674</v>
+        <v>364.111077139461</v>
       </c>
       <c r="G10" t="n">
-        <v>46.51640239181674</v>
+        <v>196.0367224558856</v>
       </c>
       <c r="H10" t="n">
-        <v>46.51640239181674</v>
+        <v>46.5164023918169</v>
       </c>
       <c r="I10" t="n">
-        <v>46.51640239181674</v>
+        <v>46.5164023918169</v>
       </c>
       <c r="J10" t="n">
-        <v>65.89540801909516</v>
+        <v>65.89540801909553</v>
       </c>
       <c r="K10" t="n">
-        <v>227.5779039736011</v>
+        <v>227.5779039736018</v>
       </c>
       <c r="L10" t="n">
-        <v>490.0022680632605</v>
+        <v>490.0022680632617</v>
       </c>
       <c r="M10" t="n">
-        <v>777.0810884794035</v>
+        <v>777.0810884794051</v>
       </c>
       <c r="N10" t="n">
-        <v>1062.768432620617</v>
+        <v>1062.768432620619</v>
       </c>
       <c r="O10" t="n">
-        <v>1310.630639257113</v>
+        <v>1310.630639257115</v>
       </c>
       <c r="P10" t="n">
-        <v>1499.198894325114</v>
+        <v>1499.198894325117</v>
       </c>
       <c r="Q10" t="n">
-        <v>1546.318699718228</v>
+        <v>1546.318699718231</v>
       </c>
       <c r="R10" t="n">
-        <v>1439.783439600083</v>
+        <v>1546.318699718231</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.783439600083</v>
+        <v>1546.318699718231</v>
       </c>
       <c r="T10" t="n">
-        <v>1216.429428829624</v>
+        <v>1546.318699718231</v>
       </c>
       <c r="U10" t="n">
-        <v>1216.429428829624</v>
+        <v>1519.708515158402</v>
       </c>
       <c r="V10" t="n">
-        <v>1216.429428829624</v>
+        <v>1519.708515158402</v>
       </c>
       <c r="W10" t="n">
-        <v>927.012258792663</v>
+        <v>1230.291345121441</v>
       </c>
       <c r="X10" t="n">
-        <v>927.012258792663</v>
+        <v>1230.291345121441</v>
       </c>
       <c r="Y10" t="n">
-        <v>706.2196796491329</v>
+        <v>1009.498765977911</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5033,16 +5033,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,28 +5051,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1671.859558793925</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C13" t="n">
-        <v>526.5658826424045</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D13" t="n">
-        <v>376.4492432300688</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E13" t="n">
-        <v>228.5361496476756</v>
+        <v>397.4723325755821</v>
       </c>
       <c r="F13" t="n">
-        <v>228.5361496476756</v>
+        <v>250.5823850776717</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>250.5823850776717</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5273,25 +5273,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5352,25 +5352,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>429.5088224239596</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1026.887310050512</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N15" t="n">
-        <v>1654.485273605118</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.58045691144</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>847.644273983533</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711973</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2341.482060890433</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2341.482060890433</v>
       </c>
       <c r="U16" t="n">
-        <v>2009.464245195835</v>
+        <v>2052.406834234631</v>
       </c>
       <c r="V16" t="n">
-        <v>1754.779756989948</v>
+        <v>1797.722346028744</v>
       </c>
       <c r="W16" t="n">
-        <v>1465.362586952987</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X16" t="n">
-        <v>1237.37303605497</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y16" t="n">
-        <v>1016.58045691144</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,55 +5501,55 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852889</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273906</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>119.2902967703784</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>119.2902967703784</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969303</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C19" t="n">
-        <v>847.644273983533</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711973</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510509</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V19" t="n">
-        <v>1722.776592304622</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.359422267661</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X19" t="n">
-        <v>1419.02150088521</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y19" t="n">
-        <v>1198.22892174168</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5726,55 +5726,55 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168595</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362674</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
         <v>4606.285157492578</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1671.859558793925</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O21" t="n">
-        <v>2223.769289033212</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>696.7084350851671</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>527.7722521572603</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D22" t="n">
-        <v>388.6197041282754</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458823</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797189</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797189</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993915</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1327.139029956954</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1099.149479058937</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>878.3568999154069</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5981,7 +5981,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
@@ -5990,7 +5990,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332388</v>
@@ -6002,25 +6002,25 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N24" t="n">
-        <v>1671.859558793925</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>849.3843576263199</v>
+        <v>835.5837926935558</v>
       </c>
       <c r="C25" t="n">
-        <v>680.448174698413</v>
+        <v>666.6476097656489</v>
       </c>
       <c r="D25" t="n">
-        <v>530.3315352860773</v>
+        <v>516.5309703533131</v>
       </c>
       <c r="E25" t="n">
-        <v>382.4184417036842</v>
+        <v>368.61787677092</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057738</v>
+        <v>221.7279292730097</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603202</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.2863919474</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1769.232122535068</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W25" t="n">
-        <v>1479.814952498107</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X25" t="n">
-        <v>1251.82540160009</v>
+        <v>1238.024836667326</v>
       </c>
       <c r="Y25" t="n">
-        <v>1031.03282245656</v>
+        <v>1017.232257523796</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6215,13 +6215,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111708</v>
@@ -6239,25 +6239,25 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123003</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803938</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>740.5562989961526</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>1337.934786622704</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N27" t="n">
-        <v>1965.532750177311</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O27" t="n">
-        <v>1965.532750177311</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>724.7519863413029</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C28" t="n">
-        <v>555.8158034133959</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133959</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310026</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330921</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>2188.35946611174</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U28" t="n">
-        <v>1899.284239455938</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V28" t="n">
-        <v>1644.599751250051</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W28" t="n">
-        <v>1355.182581213091</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X28" t="n">
-        <v>1127.193030315073</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y28" t="n">
-        <v>906.4004511715427</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="29">
@@ -6440,40 +6440,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6482,19 +6482,19 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123003</v>
@@ -6503,7 +6503,7 @@
         <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,25 +6534,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>734.6461798836018</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C31" t="n">
-        <v>705.9324428257312</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y31" t="n">
-        <v>916.2946447138415</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="32">
@@ -6692,16 +6692,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332388</v>
@@ -6713,25 +6713,25 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123003</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319319</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656811</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150016</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942648</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580107</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345471</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384015</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954147</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380726</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6877,7 +6877,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
         <v>2596.781734931273</v>
@@ -6892,7 +6892,7 @@
         <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
         <v>1483.79828551875</v>
@@ -6929,16 +6929,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332388</v>
@@ -6950,22 +6950,22 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273906</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>244.2098454714573</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>739.5354516872161</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.913939313768</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1964.511902868375</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319324</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384017</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
         <v>898.2659412311323</v>
@@ -7117,28 +7117,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,22 +7160,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332388</v>
@@ -7187,25 +7187,25 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,31 +7245,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803938</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>245.2306927803938</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>842.6091804069456</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1470.207143961552</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7321,22 +7321,22 @@
         <v>411.2214559580109</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380726</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7403,16 +7403,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332388</v>
@@ -7424,25 +7424,25 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
         <v>3820.749612123003</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1074.481071167373</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1702.07903472198</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2253.988764961267</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,7 +7543,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C43" t="n">
         <v>782.5512955656816</v>
@@ -7558,22 +7558,22 @@
         <v>411.2214559580111</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954144</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380724</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311319</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7628,52 +7628,52 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
         <v>4405.252601474784</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273906</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239597</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>710.248605371872</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7786,28 +7786,28 @@
         <v>782.551295565682</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380731</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
         <v>898.2659412311324</v>
@@ -7819,13 +7819,13 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
         <v>2596.781734931274</v>
@@ -7840,7 +7840,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -8058,7 +8058,7 @@
         <v>2.051220519418266</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>97.32166909127261</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8070,10 +8070,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>92.05878169167806</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>5.262887399594376</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8137,10 +8137,10 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446525</v>
+        <v>106.7437663446526</v>
       </c>
       <c r="L4" t="n">
-        <v>162.4747015415543</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
         <v>178.5096609094456</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>99.37288961069065</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8535,13 +8535,13 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>306.309534652847</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>220.1247239260506</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>217.2510619670684</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8550,10 +8550,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>149.206274492942</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>27.38164655864793</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -22544,25 +22544,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>119.0199616619744</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>137.3268206187131</v>
+        <v>90.96916161917676</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>143.1621657402053</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>253.6903373187311</v>
       </c>
       <c r="H2" t="n">
-        <v>50.47975262776185</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
         <v>115.3066195468971</v>
@@ -22598,19 +22598,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>31.70315701866596</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862871</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>106.0172206769629</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22702,22 +22702,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>69.13850765832424</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-2.945315721635453e-13</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>32.15184655856211</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>66.36248435538658</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>142.9753202488369</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>251.4923607175955</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>45.37941682720972</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>211.5151132204102</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>10.85445046951733</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>38.89198472948144</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>84.77391660561898</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182125</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>106.0841272570752</v>
       </c>
       <c r="H28" t="n">
-        <v>140.294712846224</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856566</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,10 +24649,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>208.7894017452204</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>138.8202214113359</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,10 +24892,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>260.4525338942707</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>331437.5228512968</v>
+        <v>331437.5228512989</v>
       </c>
       <c r="E3" t="n">
-        <v>563905.7843424128</v>
+        <v>563905.7843424106</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911397</v>
+        <v>68999.15441911407</v>
       </c>
       <c r="K3" t="n">
-        <v>5.145141455743992e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>99845.14336201175</v>
+        <v>99845.14336201226</v>
       </c>
       <c r="M3" t="n">
-        <v>147342.6769569561</v>
+        <v>147342.6769569555</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>6.850444021568233e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26421,43 +26421,43 @@
         <v>251227.3656190198</v>
       </c>
       <c r="D4" t="n">
-        <v>157189.0051277996</v>
+        <v>157189.0051277991</v>
       </c>
       <c r="E4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="F4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="G4" t="n">
+        <v>11167.03225179353</v>
+      </c>
+      <c r="H4" t="n">
         <v>11167.03225179351</v>
       </c>
-      <c r="H4" t="n">
-        <v>11167.03225179347</v>
-      </c>
       <c r="I4" t="n">
-        <v>11167.03225179349</v>
+        <v>11167.03225179353</v>
       </c>
       <c r="J4" t="n">
-        <v>11167.03225179339</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="K4" t="n">
-        <v>11167.03225179347</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="L4" t="n">
-        <v>19157.89151488695</v>
+        <v>19157.89151488697</v>
       </c>
       <c r="M4" t="n">
-        <v>19157.89151488695</v>
+        <v>19157.89151488699</v>
       </c>
       <c r="N4" t="n">
+        <v>19157.89151488699</v>
+      </c>
+      <c r="O4" t="n">
         <v>19157.89151488696</v>
       </c>
-      <c r="O4" t="n">
-        <v>19157.89151488695</v>
-      </c>
       <c r="P4" t="n">
-        <v>19157.89151488692</v>
+        <v>19157.89151488701</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="C5" t="n">
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>88290.79546543572</v>
+        <v>88290.79546543588</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-810602.4529407484</v>
+        <v>-810962.5359564659</v>
       </c>
       <c r="C6" t="n">
-        <v>-191118.9033436435</v>
+        <v>-191118.9033436434</v>
       </c>
       <c r="D6" t="n">
-        <v>-453761.0579648897</v>
+        <v>-453761.0579648913</v>
       </c>
       <c r="E6" t="n">
-        <v>-555123.3564646125</v>
+        <v>-555158.0943900461</v>
       </c>
       <c r="F6" t="n">
-        <v>8782.427877800263</v>
+        <v>8747.68995236457</v>
       </c>
       <c r="G6" t="n">
-        <v>8782.427877800292</v>
+        <v>8747.689952364526</v>
       </c>
       <c r="H6" t="n">
-        <v>8782.427877800263</v>
+        <v>8747.689952364555</v>
       </c>
       <c r="I6" t="n">
-        <v>8782.427877800277</v>
+        <v>8747.689952364541</v>
       </c>
       <c r="J6" t="n">
-        <v>-60216.72654131357</v>
+        <v>-60251.46446674944</v>
       </c>
       <c r="K6" t="n">
-        <v>8782.427877800263</v>
+        <v>8747.68995236457</v>
       </c>
       <c r="L6" t="n">
-        <v>-99010.8852511716</v>
+        <v>-99010.88525117213</v>
       </c>
       <c r="M6" t="n">
-        <v>-146508.418846116</v>
+        <v>-146508.4188461154</v>
       </c>
       <c r="N6" t="n">
-        <v>834.2581108401209</v>
+        <v>834.2581108401064</v>
       </c>
       <c r="O6" t="n">
-        <v>834.258110840281</v>
+        <v>834.2581108401355</v>
       </c>
       <c r="P6" t="n">
-        <v>834.2581108401209</v>
+        <v>834.2581108400773</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
         <v>24.28464749203969</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>885.8132865896788</v>
+        <v>885.8132865896805</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,49 +26787,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>581.4550298977092</v>
+        <v>581.4550298977113</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.43142681967999e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>8.563055026960291e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>271.7582728202005</v>
+        <v>271.7582728202023</v>
       </c>
       <c r="E3" t="n">
-        <v>482.1622137519952</v>
+        <v>482.1622137519932</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>317.7411498962031</v>
+        <v>317.7411498962052</v>
       </c>
       <c r="E4" t="n">
-        <v>591.2532582019394</v>
+        <v>591.2532582019371</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27039,10 +27039,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>317.7411498962031</v>
+        <v>317.7411498962052</v>
       </c>
       <c r="M4" t="n">
-        <v>591.2532582019394</v>
+        <v>591.2532582019371</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.43142681967999e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>317.7411498962031</v>
+        <v>317.7411498962052</v>
       </c>
       <c r="M4" t="n">
-        <v>591.2532582019394</v>
+        <v>591.2532582019371</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,16 +27382,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>217.3562210019699</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>79.63234502087457</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,10 +27439,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27458,7 +27458,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>85.95639071494936</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27470,13 +27470,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27509,16 +27509,16 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>112.2291914127358</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27549,16 +27549,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,19 +27582,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
         <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>22.54475050117135</v>
+        <v>182.0780276706694</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,22 +27616,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>101.5590117695014</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>149.1202946442039</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>314.193632629268</v>
+        <v>50.47975262776185</v>
       </c>
       <c r="I5" t="n">
         <v>115.3066195468971</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>139.6542690388304</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27673,13 +27673,13 @@
         <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862876</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>106.0172206769629</v>
+        <v>369.4518511637872</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27701,7 +27701,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27740,28 +27740,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>116.4668547783935</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>109.5453827856847</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27777,16 +27777,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>99.1819430073935</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>152.3821593358568</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
         <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
         <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>61.78062392927953</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>4.733936127356344</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>303.0051123819519</v>
+        <v>303.0051123819518</v>
       </c>
       <c r="I8" t="n">
-        <v>73.18818411815025</v>
+        <v>73.18818411814996</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>127.8724504177536</v>
+        <v>127.8724504177535</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>207.5073162493723</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0607682327524</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>18.91028756646796</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -27950,7 +27950,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>23.79630926906621</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27980,13 +27980,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>20.22217638683588</v>
+        <v>10.68734914637197</v>
       </c>
       <c r="T9" t="n">
-        <v>192.4848946346715</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.8160311441933</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>134.4430404835349</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,10 +28023,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3936111367397</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.025116863428</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>107.4132560413786</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>105.4699075169636</v>
       </c>
       <c r="S10" t="n">
-        <v>196.178826391195</v>
+        <v>196.1788263911949</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>221.1204706627545</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2319001807608</v>
+        <v>259.8878174665297</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28624,7 +28624,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29044,7 +29044,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>-5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -29095,7 +29095,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -29800,13 +29800,13 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="35">
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>-6.536993168992922e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30709,7 +30709,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.56105843855147</v>
+        <v>3.561058438551477</v>
       </c>
       <c r="H8" t="n">
-        <v>36.46968973381525</v>
+        <v>36.46968973381532</v>
       </c>
       <c r="I8" t="n">
-        <v>137.2877054522557</v>
+        <v>137.2877054522559</v>
       </c>
       <c r="J8" t="n">
-        <v>302.2403836490081</v>
+        <v>302.2403836490087</v>
       </c>
       <c r="K8" t="n">
-        <v>452.9799873528919</v>
+        <v>452.9799873528927</v>
       </c>
       <c r="L8" t="n">
-        <v>561.9617295417115</v>
+        <v>561.9617295417127</v>
       </c>
       <c r="M8" t="n">
-        <v>625.2907025483013</v>
+        <v>625.2907025483024</v>
       </c>
       <c r="N8" t="n">
-        <v>635.4085598368357</v>
+        <v>635.4085598368368</v>
       </c>
       <c r="O8" t="n">
-        <v>599.9982849884894</v>
+        <v>599.9982849884906</v>
       </c>
       <c r="P8" t="n">
-        <v>512.08465478675</v>
+        <v>512.0846547867509</v>
       </c>
       <c r="Q8" t="n">
-        <v>384.5542494561253</v>
+        <v>384.5542494561261</v>
       </c>
       <c r="R8" t="n">
-        <v>223.692337140659</v>
+        <v>223.6923371406594</v>
       </c>
       <c r="S8" t="n">
-        <v>81.1476191684917</v>
+        <v>81.14761916849186</v>
       </c>
       <c r="T8" t="n">
-        <v>15.58853331475907</v>
+        <v>15.5885333147591</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2848846750841175</v>
+        <v>0.2848846750841181</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.905334239079687</v>
+        <v>1.90533423907969</v>
       </c>
       <c r="H9" t="n">
-        <v>18.40151751953276</v>
+        <v>18.4015175195328</v>
       </c>
       <c r="I9" t="n">
-        <v>65.60032358234886</v>
+        <v>65.60032358234899</v>
       </c>
       <c r="J9" t="n">
-        <v>180.0123019474366</v>
+        <v>180.0123019474369</v>
       </c>
       <c r="K9" t="n">
-        <v>307.6696959657755</v>
+        <v>307.6696959657762</v>
       </c>
       <c r="L9" t="n">
-        <v>413.6998750247363</v>
+        <v>413.6998750247371</v>
       </c>
       <c r="M9" t="n">
-        <v>482.7682411913749</v>
+        <v>482.7682411913758</v>
       </c>
       <c r="N9" t="n">
-        <v>495.5456800139751</v>
+        <v>495.5456800139761</v>
       </c>
       <c r="O9" t="n">
-        <v>453.3274845059463</v>
+        <v>453.3274845059472</v>
       </c>
       <c r="P9" t="n">
-        <v>363.8352723730325</v>
+        <v>363.8352723730331</v>
       </c>
       <c r="Q9" t="n">
-        <v>243.2142442726982</v>
+        <v>243.2142442726987</v>
       </c>
       <c r="R9" t="n">
-        <v>118.297857405316</v>
+        <v>118.2978574053163</v>
       </c>
       <c r="S9" t="n">
-        <v>35.39074781799328</v>
+        <v>35.39074781799334</v>
       </c>
       <c r="T9" t="n">
-        <v>7.679834060150137</v>
+        <v>7.679834060150152</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1253509367815584</v>
+        <v>0.1253509367815586</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.597368221719093</v>
+        <v>1.597368221719096</v>
       </c>
       <c r="H10" t="n">
-        <v>14.20205564401158</v>
+        <v>14.20205564401161</v>
       </c>
       <c r="I10" t="n">
-        <v>48.03721888587964</v>
+        <v>48.03721888587973</v>
       </c>
       <c r="J10" t="n">
-        <v>112.9339332755399</v>
+        <v>112.9339332755401</v>
       </c>
       <c r="K10" t="n">
-        <v>185.5851443051818</v>
+        <v>185.5851443051822</v>
       </c>
       <c r="L10" t="n">
-        <v>237.4850899817641</v>
+        <v>237.4850899817645</v>
       </c>
       <c r="M10" t="n">
-        <v>250.3947295191119</v>
+        <v>250.3947295191124</v>
       </c>
       <c r="N10" t="n">
-        <v>244.4409025108864</v>
+        <v>244.4409025108869</v>
       </c>
       <c r="O10" t="n">
-        <v>225.7807373753497</v>
+        <v>225.7807373753501</v>
       </c>
       <c r="P10" t="n">
-        <v>193.19442565228</v>
+        <v>193.1944256522804</v>
       </c>
       <c r="Q10" t="n">
-        <v>133.7578062750415</v>
+        <v>133.7578062750418</v>
       </c>
       <c r="R10" t="n">
-        <v>71.82348386020574</v>
+        <v>71.82348386020587</v>
       </c>
       <c r="S10" t="n">
-        <v>27.83777164577727</v>
+        <v>27.83777164577732</v>
       </c>
       <c r="T10" t="n">
-        <v>6.825118765527031</v>
+        <v>6.825118765527044</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08712917573013243</v>
+        <v>0.0871291757301326</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>332.1692388321073</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>339.9772972286971</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>386.7287743289959</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>161.7871425275301</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>193.964997009853</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>746.4857620875799</v>
       </c>
       <c r="O24" t="n">
-        <v>332.1692388321073</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>491.1355220041058</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>454.8099857531869</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>366.8427442359099</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>303.4297552732313</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,31 +33488,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>361.7519118779092</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33521,16 +33521,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,31 +33725,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>287.9685048518521</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33758,16 +33758,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>572.8682992214867</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>163.4402738502014</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>422.1299181110988</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763047</v>
+        <v>172.7600739089031</v>
       </c>
       <c r="L3" t="n">
         <v>148.2266905659562</v>
@@ -34790,10 +34790,10 @@
         <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
-        <v>263.7138800015061</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
-        <v>123.5028874333353</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
         <v>28.61687799649638</v>
@@ -34857,10 +34857,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3800667966406</v>
+        <v>106.3800667966407</v>
       </c>
       <c r="L4" t="n">
-        <v>192.2171678043496</v>
+        <v>192.2171678043497</v>
       </c>
       <c r="M4" t="n">
         <v>213.1601163458916</v>
@@ -35012,13 +35012,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>75.43840481763047</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659562</v>
+        <v>245.5483596572286</v>
       </c>
       <c r="M6" t="n">
         <v>192.5259485823473</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>121.1944791223218</v>
+        <v>121.1944791223224</v>
       </c>
       <c r="K8" t="n">
-        <v>232.8901363079113</v>
+        <v>232.8901363079122</v>
       </c>
       <c r="L8" t="n">
-        <v>326.1953145717243</v>
+        <v>326.1953145717254</v>
       </c>
       <c r="M8" t="n">
-        <v>394.9444693210286</v>
+        <v>394.9444693210297</v>
       </c>
       <c r="N8" t="n">
-        <v>405.9954962402448</v>
+        <v>405.9954962402459</v>
       </c>
       <c r="O8" t="n">
-        <v>369.9000735668027</v>
+        <v>369.9000735668038</v>
       </c>
       <c r="P8" t="n">
-        <v>280.8516590314804</v>
+        <v>280.8516590314813</v>
       </c>
       <c r="Q8" t="n">
-        <v>162.2485595816758</v>
+        <v>162.2485595816766</v>
       </c>
       <c r="R8" t="n">
-        <v>8.10679932652684</v>
+        <v>8.106799326527266</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>53.17467528076986</v>
+        <v>53.1746752807702</v>
       </c>
       <c r="K9" t="n">
-        <v>169.8282569914165</v>
+        <v>169.8282569914172</v>
       </c>
       <c r="L9" t="n">
-        <v>581.4550298977092</v>
+        <v>275.145495244863</v>
       </c>
       <c r="M9" t="n">
-        <v>340.6342072693566</v>
+        <v>560.7589311954081</v>
       </c>
       <c r="N9" t="n">
-        <v>364.2039679306419</v>
+        <v>581.4550298977113</v>
       </c>
       <c r="O9" t="n">
-        <v>310.7312400615019</v>
+        <v>310.7312400615027</v>
       </c>
       <c r="P9" t="n">
-        <v>229.8608649587022</v>
+        <v>229.8608649587029</v>
       </c>
       <c r="Q9" t="n">
-        <v>252.4387446796188</v>
+        <v>103.2324701866772</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>18.14002325267312</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>19.57475315886708</v>
+        <v>19.5747531588673</v>
       </c>
       <c r="K10" t="n">
-        <v>163.315652479299</v>
+        <v>163.3156524792993</v>
       </c>
       <c r="L10" t="n">
-        <v>265.0751152420802</v>
+        <v>265.0751152420806</v>
       </c>
       <c r="M10" t="n">
-        <v>289.9786064809525</v>
+        <v>289.978606480953</v>
       </c>
       <c r="N10" t="n">
-        <v>288.573074890115</v>
+        <v>288.5730748901155</v>
       </c>
       <c r="O10" t="n">
-        <v>250.3658652893893</v>
+        <v>250.3658652893898</v>
       </c>
       <c r="P10" t="n">
-        <v>190.4729849171735</v>
+        <v>190.4729849171739</v>
       </c>
       <c r="Q10" t="n">
-        <v>47.59576302334712</v>
+        <v>47.59576302334737</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35492,25 +35492,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>189.5729943876629</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,31 +35720,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>197.8432633066788</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>244.1325298845514</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>23.94570355317105</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,25 +36203,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>59.99058959552271</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>615.1440500042467</v>
       </c>
       <c r="O24" t="n">
-        <v>189.5729943876629</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>349.0014880820875</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>320.8355783388566</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295329</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36762,16 +36762,16 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
         <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>235.5010321525766</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>160.8335108287869</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,16 +37151,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>219.1556674334648</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37169,7 +37169,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37233,13 +37233,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,25 +37379,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>150.1270658774932</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37406,7 +37406,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,19 +37464,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,31 +37616,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>430.2720547770423</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,25 +37701,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,25 +37862,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>29.46586643587111</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,25 +37938,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>283.5755383312246</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38184,7 +38184,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
         <v>397.5465471980852</v>
